--- a/resources/DimData.xlsx
+++ b/resources/DimData.xlsx
@@ -20,14 +20,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="54">
   <si>
     <t xml:space="preserve">descriptor</t>
   </si>
   <si>
-    <t xml:space="preserve">code</t>
-  </si>
-  <si>
     <t xml:space="preserve">L</t>
   </si>
   <si>
@@ -37,154 +34,154 @@
     <t xml:space="preserve">T</t>
   </si>
   <si>
+    <t xml:space="preserve">a</t>
+  </si>
+  <si>
     <t xml:space="preserve">Acceleration</t>
   </si>
   <si>
-    <t xml:space="preserve">a</t>
+    <t xml:space="preserve">alpha</t>
   </si>
   <si>
     <t xml:space="preserve">Angular acceleration</t>
   </si>
   <si>
-    <t xml:space="preserve">alpha</t>
+    <t xml:space="preserve">omega</t>
   </si>
   <si>
     <t xml:space="preserve">Angular frequency</t>
   </si>
   <si>
-    <t xml:space="preserve">omega</t>
+    <t xml:space="preserve">A</t>
   </si>
   <si>
     <t xml:space="preserve">Area</t>
   </si>
   <si>
-    <t xml:space="preserve">A</t>
+    <t xml:space="preserve">EI</t>
   </si>
   <si>
     <t xml:space="preserve">Beam bending stiffness</t>
   </si>
   <si>
-    <t xml:space="preserve">EI</t>
+    <t xml:space="preserve">GAs</t>
   </si>
   <si>
     <t xml:space="preserve">Beam shear stiffness</t>
   </si>
   <si>
-    <t xml:space="preserve">GAs</t>
+    <t xml:space="preserve">rho</t>
   </si>
   <si>
     <t xml:space="preserve">Density</t>
   </si>
   <si>
-    <t xml:space="preserve">rho</t>
+    <t xml:space="preserve">mu</t>
   </si>
   <si>
     <t xml:space="preserve">Dynamic viscosity</t>
   </si>
   <si>
-    <t xml:space="preserve">mu</t>
+    <t xml:space="preserve">F</t>
   </si>
   <si>
     <t xml:space="preserve">Force</t>
   </si>
   <si>
-    <t xml:space="preserve">F</t>
+    <t xml:space="preserve">f</t>
   </si>
   <si>
     <t xml:space="preserve">frequency</t>
   </si>
   <si>
-    <t xml:space="preserve">f</t>
+    <t xml:space="preserve">nu</t>
   </si>
   <si>
     <t xml:space="preserve">Kinematic viscosity</t>
   </si>
   <si>
-    <t xml:space="preserve">nu</t>
-  </si>
-  <si>
     <t xml:space="preserve">Length</t>
   </si>
   <si>
+    <t xml:space="preserve">m</t>
+  </si>
+  <si>
     <t xml:space="preserve">Mass</t>
   </si>
   <si>
-    <t xml:space="preserve">m</t>
+    <t xml:space="preserve">im</t>
   </si>
   <si>
     <t xml:space="preserve">Mass inertia per unit length</t>
   </si>
   <si>
-    <t xml:space="preserve">im</t>
+    <t xml:space="preserve">mA</t>
   </si>
   <si>
     <t xml:space="preserve">Mass per unit area</t>
   </si>
   <si>
-    <t xml:space="preserve">mA</t>
+    <t xml:space="preserve">mL</t>
   </si>
   <si>
     <t xml:space="preserve">Mass per unit length</t>
   </si>
   <si>
-    <t xml:space="preserve">mL</t>
-  </si>
-  <si>
     <t xml:space="preserve">Moment</t>
   </si>
   <si>
+    <t xml:space="preserve">I</t>
+  </si>
+  <si>
     <t xml:space="preserve">Moment of inertia</t>
   </si>
   <si>
-    <t xml:space="preserve">I</t>
+    <t xml:space="preserve">W</t>
   </si>
   <si>
     <t xml:space="preserve">Resistent modulus</t>
   </si>
   <si>
-    <t xml:space="preserve">W</t>
+    <t xml:space="preserve">Im</t>
   </si>
   <si>
     <t xml:space="preserve">Rotational mass inertia</t>
   </si>
   <si>
-    <t xml:space="preserve">Im</t>
+    <t xml:space="preserve">k</t>
   </si>
   <si>
     <t xml:space="preserve">Spring stiffness</t>
   </si>
   <si>
-    <t xml:space="preserve">k</t>
+    <t xml:space="preserve">sigma</t>
   </si>
   <si>
     <t xml:space="preserve">Stress</t>
   </si>
   <si>
-    <t xml:space="preserve">sigma</t>
+    <t xml:space="preserve">t</t>
   </si>
   <si>
     <t xml:space="preserve">Time</t>
   </si>
   <si>
-    <t xml:space="preserve">t</t>
+    <t xml:space="preserve">v</t>
   </si>
   <si>
     <t xml:space="preserve">Velocity</t>
   </si>
   <si>
-    <t xml:space="preserve">v</t>
+    <t xml:space="preserve">c</t>
   </si>
   <si>
     <t xml:space="preserve">Viscous damping</t>
   </si>
   <si>
-    <t xml:space="preserve">c</t>
+    <t xml:space="preserve">V</t>
   </si>
   <si>
     <t xml:space="preserve">Volume</t>
-  </si>
-  <si>
-    <t xml:space="preserve">V</t>
   </si>
 </sst>
 </file>
@@ -318,12 +315,12 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -375,8 +372,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="25.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="2" style="1" width="7.65"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="7.65"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="25.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="3" style="1" width="7.65"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="10.39"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="2" width="10.39"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1018" min="8" style="2" width="9.05"/>
@@ -384,29 +382,27 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="3" t="s">
-        <v>0</v>
-      </c>
+      <c r="A1" s="0"/>
       <c r="B1" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>3</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>4</v>
       </c>
       <c r="G1" s="4"/>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="6" t="s">
         <v>5</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>6</v>
       </c>
       <c r="C2" s="7" t="n">
         <v>1</v>
@@ -421,10 +417,10 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="6" t="s">
         <v>7</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>8</v>
       </c>
       <c r="C3" s="7" t="n">
         <v>0</v>
@@ -439,10 +435,10 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="6" t="s">
         <v>9</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>10</v>
       </c>
       <c r="C4" s="7" t="n">
         <v>0</v>
@@ -457,10 +453,10 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="6" t="s">
         <v>11</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>12</v>
       </c>
       <c r="C5" s="7" t="n">
         <v>2</v>
@@ -475,10 +471,10 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="6" t="s">
         <v>13</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>14</v>
       </c>
       <c r="C6" s="7" t="n">
         <v>0</v>
@@ -493,10 +489,10 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="6" t="s">
         <v>15</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>16</v>
       </c>
       <c r="C7" s="7" t="n">
         <v>2</v>
@@ -511,10 +507,10 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="6" t="s">
         <v>17</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>18</v>
       </c>
       <c r="C8" s="7" t="n">
         <v>-3</v>
@@ -529,10 +525,10 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="6" t="s">
         <v>19</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>20</v>
       </c>
       <c r="C9" s="7" t="n">
         <v>-1</v>
@@ -547,10 +543,10 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="6" t="s">
         <v>21</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>22</v>
       </c>
       <c r="C10" s="7" t="n">
         <v>1</v>
@@ -565,10 +561,10 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" s="6" t="s">
         <v>23</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>24</v>
       </c>
       <c r="C11" s="7" t="n">
         <v>0</v>
@@ -583,10 +579,10 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" s="6" t="s">
         <v>25</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>26</v>
       </c>
       <c r="C12" s="7" t="n">
         <v>2</v>
@@ -601,10 +597,10 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="5" t="s">
-        <v>27</v>
+        <v>1</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>2</v>
+        <v>26</v>
       </c>
       <c r="C13" s="7" t="n">
         <v>1</v>
@@ -619,10 +615,10 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14" s="6" t="s">
         <v>28</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>29</v>
       </c>
       <c r="C14" s="7" t="n">
         <v>0</v>
@@ -637,10 +633,10 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B15" s="6" t="s">
         <v>30</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>31</v>
       </c>
       <c r="C15" s="7" t="n">
         <v>1</v>
@@ -655,10 +651,10 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B16" s="6" t="s">
         <v>32</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>33</v>
       </c>
       <c r="C16" s="7" t="n">
         <v>-2</v>
@@ -673,10 +669,10 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B17" s="6" t="s">
         <v>34</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>35</v>
       </c>
       <c r="C17" s="7" t="n">
         <v>-1</v>
@@ -691,10 +687,10 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="5" t="s">
-        <v>36</v>
+        <v>2</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>3</v>
+        <v>35</v>
       </c>
       <c r="C18" s="7" t="n">
         <v>2</v>
@@ -709,10 +705,10 @@
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B19" s="6" t="s">
         <v>37</v>
-      </c>
-      <c r="B19" s="6" t="s">
-        <v>38</v>
       </c>
       <c r="C19" s="7" t="n">
         <v>4</v>
@@ -727,10 +723,10 @@
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B20" s="6" t="s">
         <v>39</v>
-      </c>
-      <c r="B20" s="6" t="s">
-        <v>40</v>
       </c>
       <c r="C20" s="7" t="n">
         <v>3</v>
@@ -745,10 +741,10 @@
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B21" s="6" t="s">
         <v>41</v>
-      </c>
-      <c r="B21" s="6" t="s">
-        <v>42</v>
       </c>
       <c r="C21" s="7" t="n">
         <v>2</v>
@@ -763,10 +759,10 @@
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B22" s="6" t="s">
         <v>43</v>
-      </c>
-      <c r="B22" s="6" t="s">
-        <v>44</v>
       </c>
       <c r="C22" s="7" t="n">
         <v>0</v>
@@ -781,10 +777,10 @@
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B23" s="6" t="s">
         <v>45</v>
-      </c>
-      <c r="B23" s="6" t="s">
-        <v>46</v>
       </c>
       <c r="C23" s="7" t="n">
         <v>-1</v>
@@ -799,10 +795,10 @@
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B24" s="6" t="s">
         <v>47</v>
-      </c>
-      <c r="B24" s="6" t="s">
-        <v>48</v>
       </c>
       <c r="C24" s="7" t="n">
         <v>0</v>
@@ -817,10 +813,10 @@
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B25" s="6" t="s">
         <v>49</v>
-      </c>
-      <c r="B25" s="6" t="s">
-        <v>50</v>
       </c>
       <c r="C25" s="7" t="n">
         <v>1</v>
@@ -835,10 +831,10 @@
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B26" s="6" t="s">
         <v>51</v>
-      </c>
-      <c r="B26" s="6" t="s">
-        <v>52</v>
       </c>
       <c r="C26" s="7" t="n">
         <v>0</v>
@@ -853,10 +849,10 @@
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B27" s="6" t="s">
         <v>53</v>
-      </c>
-      <c r="B27" s="6" t="s">
-        <v>54</v>
       </c>
       <c r="C27" s="7" t="n">
         <v>3</v>

--- a/resources/DimData.xlsx
+++ b/resources/DimData.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="70">
   <si>
     <t xml:space="preserve">descriptor</t>
   </si>
@@ -65,6 +65,12 @@
   </si>
   <si>
     <t xml:space="preserve">Area</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Axial stiffness</t>
   </si>
   <si>
     <t xml:space="preserve">EI</t>
@@ -421,10 +427,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="true"/>
   </sheetPr>
-  <dimension ref="A1:H28"/>
+  <dimension ref="A1:H29"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F3" activeCellId="0" sqref="F3"/>
+      <selection pane="topLeft" activeCell="F7" activeCellId="0" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -552,7 +558,7 @@
         <v>15</v>
       </c>
       <c r="D6" s="8" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E6" s="8" t="n">
         <v>1</v>
@@ -570,10 +576,10 @@
         <v>18</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D7" s="8" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E7" s="8" t="n">
         <v>1</v>
@@ -581,68 +587,68 @@
       <c r="F7" s="8" t="n">
         <v>-2</v>
       </c>
-      <c r="H7" s="4"/>
+      <c r="H7" s="12"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="C8" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="7" t="s">
-        <v>22</v>
-      </c>
       <c r="D8" s="8" t="n">
-        <v>-3</v>
+        <v>1</v>
       </c>
       <c r="E8" s="8" t="n">
         <v>1</v>
       </c>
       <c r="F8" s="8" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="H8" s="4"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="C9" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="7" t="s">
-        <v>25</v>
-      </c>
       <c r="D9" s="8" t="n">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="E9" s="8" t="n">
         <v>1</v>
       </c>
       <c r="F9" s="8" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="H9" s="4"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="C10" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="C10" s="7" t="s">
-        <v>26</v>
-      </c>
       <c r="D10" s="8" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="E10" s="8" t="n">
         <v>1</v>
       </c>
       <c r="F10" s="8" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="H10" s="4"/>
     </row>
@@ -657,7 +663,7 @@
         <v>28</v>
       </c>
       <c r="D11" s="8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E11" s="8" t="n">
         <v>1</v>
@@ -681,10 +687,10 @@
         <v>0</v>
       </c>
       <c r="E12" s="8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F12" s="8" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="H12" s="4"/>
     </row>
@@ -696,10 +702,10 @@
         <v>33</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D13" s="8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E13" s="8" t="n">
         <v>0</v>
@@ -711,45 +717,45 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="5" t="s">
-        <v>2</v>
+        <v>34</v>
       </c>
       <c r="B14" s="6" t="s">
         <v>35</v>
       </c>
       <c r="C14" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="D14" s="8" t="n">
         <v>2</v>
       </c>
-      <c r="D14" s="8" t="n">
-        <v>1</v>
-      </c>
       <c r="E14" s="8" t="n">
         <v>0</v>
       </c>
       <c r="F14" s="8" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="H14" s="4"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="5" t="s">
-        <v>36</v>
+        <v>2</v>
       </c>
       <c r="B15" s="6" t="s">
         <v>37</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>36</v>
+        <v>2</v>
       </c>
       <c r="D15" s="8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E15" s="8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F15" s="8" t="n">
         <v>0</v>
       </c>
-      <c r="H15" s="13"/>
+      <c r="H15" s="4"/>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="5" t="s">
@@ -759,10 +765,10 @@
         <v>39</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D16" s="8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E16" s="8" t="n">
         <v>1</v>
@@ -770,20 +776,20 @@
       <c r="F16" s="8" t="n">
         <v>0</v>
       </c>
-      <c r="H16" s="9"/>
+      <c r="H16" s="13"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B17" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="B17" s="6" t="s">
+      <c r="C17" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="C17" s="7" t="s">
-        <v>43</v>
-      </c>
       <c r="D17" s="8" t="n">
-        <v>-2</v>
+        <v>1</v>
       </c>
       <c r="E17" s="8" t="n">
         <v>1</v>
@@ -795,16 +801,16 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B18" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="B18" s="6" t="s">
+      <c r="C18" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="C18" s="7" t="s">
-        <v>46</v>
-      </c>
       <c r="D18" s="8" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="E18" s="8" t="n">
         <v>1</v>
@@ -812,47 +818,47 @@
       <c r="F18" s="8" t="n">
         <v>0</v>
       </c>
-      <c r="H18" s="4"/>
+      <c r="H18" s="9"/>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="5" t="s">
-        <v>3</v>
+        <v>46</v>
       </c>
       <c r="B19" s="6" t="s">
         <v>47</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>3</v>
+        <v>48</v>
       </c>
       <c r="D19" s="8" t="n">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="E19" s="8" t="n">
         <v>1</v>
       </c>
       <c r="F19" s="8" t="n">
-        <v>-2</v>
-      </c>
-      <c r="H19" s="14"/>
+        <v>0</v>
+      </c>
+      <c r="H19" s="4"/>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="5" t="s">
-        <v>48</v>
+        <v>3</v>
       </c>
       <c r="B20" s="6" t="s">
         <v>49</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>48</v>
+        <v>3</v>
       </c>
       <c r="D20" s="8" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E20" s="8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F20" s="8" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="H20" s="14"/>
     </row>
@@ -867,7 +873,7 @@
         <v>50</v>
       </c>
       <c r="D21" s="8" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E21" s="8" t="n">
         <v>0</v>
@@ -885,13 +891,13 @@
         <v>53</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D22" s="8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E22" s="8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F22" s="8" t="n">
         <v>0</v>
@@ -900,22 +906,22 @@
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B23" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="B23" s="6" t="s">
+      <c r="C23" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="C23" s="7" t="s">
-        <v>55</v>
-      </c>
       <c r="D23" s="8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E23" s="8" t="n">
         <v>1</v>
       </c>
       <c r="F23" s="8" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="H23" s="14"/>
     </row>
@@ -927,10 +933,10 @@
         <v>58</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D24" s="8" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="E24" s="8" t="n">
         <v>1</v>
@@ -942,22 +948,22 @@
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="B25" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="B25" s="6" t="s">
+      <c r="C25" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="C25" s="7" t="s">
-        <v>60</v>
-      </c>
       <c r="D25" s="8" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E25" s="8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F25" s="8" t="n">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="H25" s="14"/>
     </row>
@@ -972,15 +978,15 @@
         <v>62</v>
       </c>
       <c r="D26" s="8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E26" s="8" t="n">
         <v>0</v>
       </c>
       <c r="F26" s="8" t="n">
-        <v>-1</v>
-      </c>
-      <c r="H26" s="4"/>
+        <v>1</v>
+      </c>
+      <c r="H26" s="14"/>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="5" t="s">
@@ -993,10 +999,10 @@
         <v>64</v>
       </c>
       <c r="D27" s="8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E27" s="8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F27" s="8" t="n">
         <v>-1</v>
@@ -1014,15 +1020,36 @@
         <v>66</v>
       </c>
       <c r="D28" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E28" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="F28" s="8" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H28" s="4"/>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="D29" s="8" t="n">
         <v>3</v>
       </c>
-      <c r="E28" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="F28" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="H28" s="4"/>
+      <c r="E29" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" s="4"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="true" verticalCentered="false"/>
